--- a/models/calculation engines/cbix2/outputs/capesize/actual_price_determination_from_CBIX_price/nominal_mine_div_index_specifications.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/actual_price_determination_from_CBIX_price/nominal_mine_div_index_specifications.xlsx
@@ -645,7 +645,7 @@
         <v>0.3625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0.0675</v>
@@ -2022,7 +2022,7 @@
         <v>0.189</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008999999999999959</v>
+        <v>0.008999999999999958</v>
       </c>
       <c r="I28" t="n">
         <v>0.08</v>
